--- a/results/WN/WN-no-quals-analysis.xlsx
+++ b/results/WN/WN-no-quals-analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="4600" yWindow="0" windowWidth="24480" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HITResultsFor20BUHYW2GTP9V7IPGL" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>AXPLF02A6NNMR</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Antitrust legislation</t>
+  </si>
+  <si>
+    <t>α=0.1</t>
+  </si>
+  <si>
+    <t>α=0.05</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4908,21 +4914,37 @@
         <f t="shared" si="23"/>
         <v>11</v>
       </c>
+      <c r="AN31">
+        <f>AVERAGE(AN2:AN29)</f>
+        <v>13.428571428571429</v>
+      </c>
     </row>
     <row r="32" spans="1:41">
       <c r="C32">
         <f>COUNTIF(D30:AM31,"&lt;5")</f>
         <v>4</v>
       </c>
+      <c r="U32" t="s">
+        <v>46</v>
+      </c>
       <c r="V32" s="1">
         <f>COUNTIF(V30:AM30,"&gt;=18")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="22:22">
+    <row r="33" spans="21:22">
       <c r="V33" s="1">
         <f>COUNTIF(V30:AM30,"&gt;=22")</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="21:22">
+      <c r="U34" t="s">
+        <v>47</v>
+      </c>
+      <c r="V34">
+        <f>COUNTIF(V30:AM30,"&gt;=19")</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
